--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H2">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I2">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J2">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>76.87069429954236</v>
+        <v>96.22427860813133</v>
       </c>
       <c r="R2">
-        <v>76.87069429954236</v>
+        <v>866.0185074731819</v>
       </c>
       <c r="S2">
-        <v>0.1552435023664168</v>
+        <v>0.173018933286188</v>
       </c>
       <c r="T2">
-        <v>0.1552435023664168</v>
+        <v>0.173018933286188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H3">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I3">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J3">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>121.0889900366955</v>
+        <v>124.6236082874493</v>
       </c>
       <c r="R3">
-        <v>121.0889900366955</v>
+        <v>1121.612474587044</v>
       </c>
       <c r="S3">
-        <v>0.2445441540837061</v>
+        <v>0.22408319480348</v>
       </c>
       <c r="T3">
-        <v>0.2445441540837061</v>
+        <v>0.22408319480348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H4">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I4">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J4">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>65.28366755406283</v>
+        <v>78.17023272797466</v>
       </c>
       <c r="R4">
-        <v>65.28366755406283</v>
+        <v>703.532094551772</v>
       </c>
       <c r="S4">
-        <v>0.1318430292684095</v>
+        <v>0.140556317770974</v>
       </c>
       <c r="T4">
-        <v>0.1318430292684095</v>
+        <v>0.140556317770974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H5">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I5">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J5">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>34.23840418788153</v>
+        <v>35.42991971313367</v>
       </c>
       <c r="R5">
-        <v>34.23840418788153</v>
+        <v>318.869277418203</v>
       </c>
       <c r="S5">
-        <v>0.06914585369622925</v>
+        <v>0.0637058235598314</v>
       </c>
       <c r="T5">
-        <v>0.06914585369622925</v>
+        <v>0.0637058235598314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H6">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I6">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J6">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>16.45553654005736</v>
+        <v>20.86082348147466</v>
       </c>
       <c r="R6">
-        <v>16.45553654005736</v>
+        <v>187.747411333272</v>
       </c>
       <c r="S6">
-        <v>0.03323262719395344</v>
+        <v>0.03750942567140439</v>
       </c>
       <c r="T6">
-        <v>0.03323262719395344</v>
+        <v>0.03750942567140439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H7">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I7">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J7">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>25.92124760032702</v>
+        <v>27.01762103820266</v>
       </c>
       <c r="R7">
-        <v>25.92124760032702</v>
+        <v>243.1585893438239</v>
       </c>
       <c r="S7">
-        <v>0.05234901674624006</v>
+        <v>0.0485798390965051</v>
       </c>
       <c r="T7">
-        <v>0.05234901674624006</v>
+        <v>0.0485798390965051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H8">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I8">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J8">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>13.97512779992197</v>
+        <v>16.94681893210133</v>
       </c>
       <c r="R8">
-        <v>13.97512779992197</v>
+        <v>152.521370388912</v>
       </c>
       <c r="S8">
-        <v>0.02822334057793309</v>
+        <v>0.03047173308689865</v>
       </c>
       <c r="T8">
-        <v>0.02822334057793309</v>
+        <v>0.03047173308689865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H9">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I9">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J9">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>7.329338134913808</v>
+        <v>7.680985628465333</v>
       </c>
       <c r="R9">
-        <v>7.329338134913808</v>
+        <v>69.128870656188</v>
       </c>
       <c r="S9">
-        <v>0.01480189729597037</v>
+        <v>0.01381102523444962</v>
       </c>
       <c r="T9">
-        <v>0.01480189729597037</v>
+        <v>0.01381102523444962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.35109137763417</v>
+        <v>1.374521</v>
       </c>
       <c r="H10">
-        <v>1.35109137763417</v>
+        <v>4.123563</v>
       </c>
       <c r="I10">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902688</v>
       </c>
       <c r="J10">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>34.62599308449844</v>
+        <v>42.92486774259133</v>
       </c>
       <c r="R10">
-        <v>34.62599308449844</v>
+        <v>386.3238096833219</v>
       </c>
       <c r="S10">
-        <v>0.0699286052810488</v>
+        <v>0.07718233834227216</v>
       </c>
       <c r="T10">
-        <v>0.0699286052810488</v>
+        <v>0.07718233834227217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.35109137763417</v>
+        <v>1.374521</v>
       </c>
       <c r="H11">
-        <v>1.35109137763417</v>
+        <v>4.123563</v>
       </c>
       <c r="I11">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902688</v>
       </c>
       <c r="J11">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>54.54388788634213</v>
+        <v>55.59357763676933</v>
       </c>
       <c r="R11">
-        <v>54.54388788634213</v>
+        <v>500.3421987309239</v>
       </c>
       <c r="S11">
-        <v>0.1101536061995389</v>
+        <v>0.09996168991246546</v>
       </c>
       <c r="T11">
-        <v>0.1101536061995389</v>
+        <v>0.09996168991246547</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.35109137763417</v>
+        <v>1.374521</v>
       </c>
       <c r="H12">
-        <v>1.35109137763417</v>
+        <v>4.123563</v>
       </c>
       <c r="I12">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902688</v>
       </c>
       <c r="J12">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>29.40667886319757</v>
+        <v>34.87110477513466</v>
       </c>
       <c r="R12">
-        <v>29.40667886319757</v>
+        <v>313.839942976212</v>
       </c>
       <c r="S12">
-        <v>0.05938798733751581</v>
+        <v>0.06270102969828713</v>
       </c>
       <c r="T12">
-        <v>0.05938798733751581</v>
+        <v>0.06270102969828714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.35109137763417</v>
+        <v>1.374521</v>
       </c>
       <c r="H13">
-        <v>1.35109137763417</v>
+        <v>4.123563</v>
       </c>
       <c r="I13">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902688</v>
       </c>
       <c r="J13">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N13">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q13">
-        <v>15.42250603349768</v>
+        <v>15.80499890272367</v>
       </c>
       <c r="R13">
-        <v>15.42250603349768</v>
+        <v>142.244990124513</v>
       </c>
       <c r="S13">
-        <v>0.03114637995303795</v>
+        <v>0.02841864953724412</v>
       </c>
       <c r="T13">
-        <v>0.03114637995303795</v>
+        <v>0.02841864953724413</v>
       </c>
     </row>
   </sheetData>
